--- a/biology/Botanique/Zannichellia_melitensis/Zannichellia_melitensis.xlsx
+++ b/biology/Botanique/Zannichellia_melitensis/Zannichellia_melitensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zannichellia melitensis est une espèce de plantes dicotylédones de la famille des Potamogetonaceae, endémique de l'archipel maltais. 
-C'est une pante herbacée annuelle aquatique de type monoïque (fleurs mâles et femelles distinctes sur le même pied). Elle se rencontre dans les petites mares des plateaux calcaires où elle pousse avec d'autres hydrophytes[2].
+C'est une pante herbacée annuelle aquatique de type monoïque (fleurs mâles et femelles distinctes sur le même pied). Elle se rencontre dans les petites mares des plateaux calcaires où elle pousse avec d'autres hydrophytes.
 </t>
         </is>
       </c>
@@ -512,12 +524,49 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce, Zannichellia melitensis, a été décrite en premier par Salvatore Brullo, Gianpietro Giusso &amp; Edwin Lanfranco, et publiée en 2001 dans Flora Mediterranea 11: 379[3].
-Les zannichellies des mares des plateaux maltais étaient connues et précédemment d'autres auteurs (Sommier &amp; Caruana Gatto en 1915, Borg  en 1927) et Haslam et al.  en 1977) les avaient rattachées à Zannichiella palustris  ou Zannichiella  pedunculata (= Z. palustris var. pedicellata Fries). Cependant  des études morphologiques et anatomiques ont démontré que ces populations sont bien différenciées des autres espèces connues du genre Zannichellia et constituent donc une espèce nouvelle pour la science[2].
-Synonymes
-Selon The Plant List            (18 juillet 2021)[4] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce, Zannichellia melitensis, a été décrite en premier par Salvatore Brullo, Gianpietro Giusso &amp; Edwin Lanfranco, et publiée en 2001 dans Flora Mediterranea 11: 379.
+Les zannichellies des mares des plateaux maltais étaient connues et précédemment d'autres auteurs (Sommier &amp; Caruana Gatto en 1915, Borg  en 1927) et Haslam et al.  en 1977) les avaient rattachées à Zannichiella palustris  ou Zannichiella  pedunculata (= Z. palustris var. pedicellata Fries). Cependant  des études morphologiques et anatomiques ont démontré que ces populations sont bien différenciées des autres espèces connues du genre Zannichellia et constituent donc une espèce nouvelle pour la science.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Zannichellia_melitensis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zannichellia_melitensis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (18 juillet 2021) : 
 Algoides palustre (L.) Lunell
 Pelta palustris (L.) Dulac
 Zannichellia aculeata Schur
@@ -528,18 +577,53 @@
 Zannichellia indica Morong
 Zannichellia komarovii Tzvelev
 Zannichellia laevis C.Presl
-Zannichellia major (Hartman) Boenn. ex Reichenb.[5]
-Zannichellia melitensis Brullo, Giusso &amp; Lanfr. [5]
+Zannichellia major (Hartman) Boenn. ex Reichenb.
+Zannichellia melitensis Brullo, Giusso &amp; Lanfr. 
 Zannichellia palustris var. aculeata (Schur) Asch. &amp; Graebn.
-Zannichellia palustris var. major (Hartman) W.D.J. Koch[5]
-Zannichellia palustris var. stenophylla Aschers. &amp; Graebn.[5]
-Zannichellia palustris L. (préféré par BioLib)[5]
+Zannichellia palustris var. major (Hartman) W.D.J. Koch
+Zannichellia palustris var. stenophylla Aschers. &amp; Graebn.
+Zannichellia palustris L. (préféré par BioLib)
 Zannichellia qinghaiensis Y.D.Chen
 Zannichellia radicans Wallman
 Zannichellia subulata Lojac.
 Zannichellia tenuis Reut.
-Liste des sous-espèces
-Selon BioLib                    (18 juillet 2021)[5] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Zannichellia_melitensis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zannichellia_melitensis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (18 juillet 2021) :
 Zannichellia palustris subsp. palustris
 Zannichellia palustris subsp. pedicellata (Wahlenb. &amp; E. Rosén) Arcang.</t>
         </is>
